--- a/excel/dragonNode.xlsx
+++ b/excel/dragonNode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EF21E4-84F8-4939-971C-65AAF07F56ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3602D697-B384-4470-B42F-7B54B3D6F7C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -106,6 +106,70 @@
   </si>
   <si>
     <t>height</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小道士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaodaoshi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianxiake</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑侠客</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c20009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c20005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c20013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>caiyaotongzi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采药童子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/hero/xiaodaoshi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/hero/jianxiake</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/hero/caiyaotongzi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富家小姐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>huangrong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation/hero/huangrong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c20017</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -441,13 +505,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -548,6 +616,98 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1">
+        <v>133</v>
+      </c>
+      <c r="G5" s="1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1">
+        <v>326</v>
+      </c>
+      <c r="G6" s="1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>20005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1">
+        <v>272</v>
+      </c>
+      <c r="G7" s="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>20006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1">
+        <v>220</v>
+      </c>
+      <c r="G8" s="1">
+        <v>247</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/excel/dragonNode.xlsx
+++ b/excel/dragonNode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3602D697-B384-4470-B42F-7B54B3D6F7C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C879AD8E-AB0B-47D3-AF7B-8BEF64CC7DE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -170,6 +170,14 @@
   </si>
   <si>
     <t>c20017</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>head</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -505,19 +513,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="3" max="4" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -528,21 +536,24 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -553,21 +564,24 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>20001</v>
       </c>
@@ -578,21 +592,24 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>351</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>397</v>
       </c>
-      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>20002</v>
       </c>
@@ -603,21 +620,24 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>242</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>368</v>
       </c>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>20003</v>
       </c>
@@ -628,19 +648,22 @@
         <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>133</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>20004</v>
       </c>
@@ -651,19 +674,22 @@
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>326</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>20005</v>
       </c>
@@ -674,19 +700,22 @@
         <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>272</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>313</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>20006</v>
       </c>
@@ -697,15 +726,18 @@
         <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>220</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>247</v>
       </c>
     </row>

--- a/excel/dragonNode.xlsx
+++ b/excel/dragonNode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C879AD8E-AB0B-47D3-AF7B-8BEF64CC7DE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0C4D6B-1FCC-48C1-A1CF-245A70F21DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -89,14 +83,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>animation/hero/qigai</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>animation/hero/chenyouliang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -145,18 +131,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>animation/hero/xiaodaoshi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>animation/hero/jianxiake</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>animation/hero/caiyaotongzi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>富家小姐</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -165,10 +139,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>animation/hero/huangrong</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>c20017</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -178,6 +148,30 @@
   </si>
   <si>
     <t>head</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero/qigai</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero/chenyouliang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero/huangrong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero/xiaodaoshi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero/jianxiake</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero/caiyaotongzi</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -516,12 +510,13 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
     <col min="6" max="6" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -536,7 +531,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -545,10 +540,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -564,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -573,10 +568,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -598,7 +593,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1">
         <v>351</v>
@@ -626,7 +621,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1">
         <v>242</v>
@@ -642,16 +637,16 @@
         <v>20003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>33</v>
@@ -668,19 +663,19 @@
         <v>20004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G6" s="1">
         <v>326</v>
@@ -694,19 +689,19 @@
         <v>20005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1">
         <v>272</v>
@@ -720,19 +715,19 @@
         <v>20006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1">
         <v>220</v>

--- a/excel/dragonNode.xlsx
+++ b/excel/dragonNode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0C4D6B-1FCC-48C1-A1CF-245A70F21DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839B0886-C94D-4E53-A523-65CBC95A15A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -172,6 +172,10 @@
   </si>
   <si>
     <t>hero/caiyaotongzi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -507,20 +511,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="3" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -534,21 +538,24 @@
         <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -562,21 +569,24 @@
         <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>20001</v>
       </c>
@@ -593,18 +603,21 @@
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>351</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>397</v>
       </c>
-      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>20002</v>
       </c>
@@ -621,18 +634,21 @@
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>242</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>368</v>
       </c>
-      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>20003</v>
       </c>
@@ -649,16 +665,19 @@
         <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>133</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>20004</v>
       </c>
@@ -675,16 +694,19 @@
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>326</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>20005</v>
       </c>
@@ -701,16 +723,19 @@
         <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>272</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>313</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>20006</v>
       </c>
@@ -727,12 +752,15 @@
         <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>220</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>247</v>
       </c>
     </row>

--- a/excel/dragonNode.xlsx
+++ b/excel/dragonNode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839B0886-C94D-4E53-A523-65CBC95A15A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42E05FB-9775-4929-BA21-86CF20440D2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>c20025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>c20029</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -176,6 +172,18 @@
   </si>
   <si>
     <t>fileName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c20030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scale</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +522,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -535,7 +543,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -547,12 +555,14 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -566,24 +576,26 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -600,13 +612,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1">
         <v>351</v>
@@ -614,7 +626,9 @@
       <c r="I3" s="1">
         <v>397</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -631,13 +645,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1">
         <v>242</v>
@@ -645,7 +659,9 @@
       <c r="I4" s="1">
         <v>368</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -653,28 +669,31 @@
         <v>20003</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1">
         <v>133</v>
       </c>
       <c r="I5" s="1">
         <v>339</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -682,28 +701,31 @@
         <v>20004</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="1">
         <v>326</v>
       </c>
       <c r="I6" s="1">
         <v>365</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -711,28 +733,31 @@
         <v>20005</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="1">
         <v>272</v>
       </c>
       <c r="I7" s="1">
         <v>313</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -740,28 +765,31 @@
         <v>20006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="1">
         <v>220</v>
       </c>
       <c r="I8" s="1">
         <v>247</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
